--- a/Code/Results/Cases/Case_0_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9946335120890987</v>
+        <v>1.039628898182855</v>
       </c>
       <c r="D2">
-        <v>1.002643436960774</v>
+        <v>1.040077909014349</v>
       </c>
       <c r="E2">
-        <v>1.001171474114499</v>
+        <v>1.03806582671003</v>
       </c>
       <c r="F2">
-        <v>1.003360171451011</v>
+        <v>1.047367141158597</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045368876478539</v>
+        <v>1.038048715023419</v>
       </c>
       <c r="J2">
-        <v>1.016975927285302</v>
+        <v>1.044719881389427</v>
       </c>
       <c r="K2">
-        <v>1.014066066948362</v>
+        <v>1.042861279582439</v>
       </c>
       <c r="L2">
-        <v>1.01261451253352</v>
+        <v>1.04085492065352</v>
       </c>
       <c r="M2">
-        <v>1.014772891406778</v>
+        <v>1.050129977221782</v>
       </c>
       <c r="N2">
-        <v>1.018420149750817</v>
+        <v>1.046203503452045</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002459698408849</v>
+        <v>1.041138098692954</v>
       </c>
       <c r="D3">
-        <v>1.009403359336114</v>
+        <v>1.041421449347817</v>
       </c>
       <c r="E3">
-        <v>1.007709419340872</v>
+        <v>1.039368302121845</v>
       </c>
       <c r="F3">
-        <v>1.01147446550469</v>
+        <v>1.048991841193356</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048075122351622</v>
+        <v>1.038444277576797</v>
       </c>
       <c r="J3">
-        <v>1.022883533420665</v>
+        <v>1.045871568733474</v>
       </c>
       <c r="K3">
-        <v>1.019917319810516</v>
+        <v>1.044013766300542</v>
       </c>
       <c r="L3">
-        <v>1.018244597972361</v>
+        <v>1.041966031120062</v>
       </c>
       <c r="M3">
-        <v>1.021962603772114</v>
+        <v>1.051564400405228</v>
       </c>
       <c r="N3">
-        <v>1.024336145364504</v>
+        <v>1.047356826324221</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007359453745807</v>
+        <v>1.042112650351586</v>
       </c>
       <c r="D4">
-        <v>1.01364063914114</v>
+        <v>1.042289153832775</v>
       </c>
       <c r="E4">
-        <v>1.011808534805039</v>
+        <v>1.040209523305763</v>
       </c>
       <c r="F4">
-        <v>1.016558296452752</v>
+        <v>1.050041275052036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049751983991342</v>
+        <v>1.0386975721454</v>
       </c>
       <c r="J4">
-        <v>1.026576759217085</v>
+        <v>1.046614419928621</v>
       </c>
       <c r="K4">
-        <v>1.023577174753616</v>
+        <v>1.044757317260793</v>
       </c>
       <c r="L4">
-        <v>1.021766500082104</v>
+        <v>1.04268288895571</v>
       </c>
       <c r="M4">
-        <v>1.026460902038542</v>
+        <v>1.052490241827758</v>
       </c>
       <c r="N4">
-        <v>1.028034615965173</v>
+        <v>1.048100732453272</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009382329889183</v>
+        <v>1.042521881601634</v>
       </c>
       <c r="D5">
-        <v>1.015391138685168</v>
+        <v>1.042653547613996</v>
       </c>
       <c r="E5">
-        <v>1.01350217685649</v>
+        <v>1.040562804346008</v>
       </c>
       <c r="F5">
-        <v>1.018658046729374</v>
+        <v>1.05048202253525</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050440029044625</v>
+        <v>1.038803422983074</v>
       </c>
       <c r="J5">
-        <v>1.028100164011797</v>
+        <v>1.046926154563227</v>
       </c>
       <c r="K5">
-        <v>1.025087254685449</v>
+        <v>1.045069389663082</v>
       </c>
       <c r="L5">
-        <v>1.023219744723961</v>
+        <v>1.042983758457948</v>
       </c>
       <c r="M5">
-        <v>1.028317293610638</v>
+        <v>1.052878917450248</v>
       </c>
       <c r="N5">
-        <v>1.029560184169431</v>
+        <v>1.048412909786815</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009719875583273</v>
+        <v>1.042590566013208</v>
       </c>
       <c r="D6">
-        <v>1.015683298296962</v>
+        <v>1.042714708321079</v>
       </c>
       <c r="E6">
-        <v>1.013784859529048</v>
+        <v>1.04062210038727</v>
       </c>
       <c r="F6">
-        <v>1.019008471347105</v>
+        <v>1.050556000779053</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050554587205441</v>
+        <v>1.03882115869598</v>
       </c>
       <c r="J6">
-        <v>1.028354284380069</v>
+        <v>1.046978463537032</v>
       </c>
       <c r="K6">
-        <v>1.025339178059683</v>
+        <v>1.045121757902395</v>
       </c>
       <c r="L6">
-        <v>1.023462191192828</v>
+        <v>1.043034246780628</v>
       </c>
       <c r="M6">
-        <v>1.028627014566431</v>
+        <v>1.052944145910667</v>
       </c>
       <c r="N6">
-        <v>1.029814665417774</v>
+        <v>1.048465293045363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007386625872632</v>
+        <v>1.0421181203563</v>
       </c>
       <c r="D7">
-        <v>1.013664148238456</v>
+        <v>1.042294024400607</v>
       </c>
       <c r="E7">
-        <v>1.011831279452637</v>
+        <v>1.040214245303137</v>
       </c>
       <c r="F7">
-        <v>1.016586497720314</v>
+        <v>1.050047166036801</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049761243025816</v>
+        <v>1.038698989018004</v>
       </c>
       <c r="J7">
-        <v>1.026597227675391</v>
+        <v>1.046618587534176</v>
       </c>
       <c r="K7">
-        <v>1.023597462442568</v>
+        <v>1.044761489208479</v>
       </c>
       <c r="L7">
-        <v>1.021786023870162</v>
+        <v>1.042686911135819</v>
       </c>
       <c r="M7">
-        <v>1.026485840848061</v>
+        <v>1.052495437473317</v>
       </c>
       <c r="N7">
-        <v>1.028055113491038</v>
+        <v>1.048104905977304</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9973139192203437</v>
+        <v>1.040139359529953</v>
       </c>
       <c r="D8">
-        <v>1.004957523483142</v>
+        <v>1.040532312017948</v>
       </c>
       <c r="E8">
-        <v>1.003409357485884</v>
+        <v>1.03850633311389</v>
       </c>
       <c r="F8">
-        <v>1.006138464807907</v>
+        <v>1.047916606266406</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04629939128874</v>
+        <v>1.038182949890783</v>
       </c>
       <c r="J8">
-        <v>1.019000326931606</v>
+        <v>1.04510959383018</v>
       </c>
       <c r="K8">
-        <v>1.016070758118329</v>
+        <v>1.043251224318155</v>
       </c>
       <c r="L8">
-        <v>1.014543344063622</v>
+        <v>1.04123086534082</v>
       </c>
       <c r="M8">
-        <v>1.01723592377517</v>
+        <v>1.050615234248282</v>
       </c>
       <c r="N8">
-        <v>1.020447424276821</v>
+        <v>1.046593769329164</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9781872245676579</v>
+        <v>1.03663679157086</v>
       </c>
       <c r="D9">
-        <v>0.988471222428035</v>
+        <v>1.037414940365798</v>
       </c>
       <c r="E9">
-        <v>0.9874708281176684</v>
+        <v>1.035484456848852</v>
       </c>
       <c r="F9">
-        <v>0.986329808423681</v>
+        <v>1.044147636363842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039586530825025</v>
+        <v>1.037253116717917</v>
       </c>
       <c r="J9">
-        <v>1.00453448058496</v>
+        <v>1.042432116002652</v>
       </c>
       <c r="K9">
-        <v>1.001754157018681</v>
+        <v>1.040572909324265</v>
       </c>
       <c r="L9">
-        <v>1.000770506763675</v>
+        <v>1.038648717312256</v>
       </c>
       <c r="M9">
-        <v>0.9996486383000927</v>
+        <v>1.04728386258752</v>
       </c>
       <c r="N9">
-        <v>1.005961034769106</v>
+        <v>1.043912489176011</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9643194685635604</v>
+        <v>1.034290594350215</v>
       </c>
       <c r="D10">
-        <v>0.9765574642303257</v>
+        <v>1.03532748602872</v>
       </c>
       <c r="E10">
-        <v>0.9759600159671675</v>
+        <v>1.033461153057041</v>
       </c>
       <c r="F10">
-        <v>0.9719893778291586</v>
+        <v>1.041624522195846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034629141876482</v>
+        <v>1.036619260395995</v>
       </c>
       <c r="J10">
-        <v>0.9940239135867625</v>
+        <v>1.040634303640133</v>
       </c>
       <c r="K10">
-        <v>0.9913632857722149</v>
+        <v>1.038775489138307</v>
       </c>
       <c r="L10">
-        <v>0.9907773226307041</v>
+        <v>1.036915847224548</v>
       </c>
       <c r="M10">
-        <v>0.9868834849220205</v>
+        <v>1.045050144650138</v>
       </c>
       <c r="N10">
-        <v>0.9954355415601921</v>
+        <v>1.042112123713725</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9579983842983434</v>
+        <v>1.033271892256465</v>
       </c>
       <c r="D11">
-        <v>0.9711385299686968</v>
+        <v>1.034421308401347</v>
       </c>
       <c r="E11">
-        <v>0.9707263611755869</v>
+        <v>1.032582873595427</v>
       </c>
       <c r="F11">
-        <v>0.9654582021183565</v>
+        <v>1.040529364994142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032349311334539</v>
+        <v>1.036341439915583</v>
       </c>
       <c r="J11">
-        <v>0.9892292379984851</v>
+        <v>1.0398526919738</v>
       </c>
       <c r="K11">
-        <v>0.9866260582446387</v>
+        <v>1.037994274312641</v>
       </c>
       <c r="L11">
-        <v>0.9862222880797548</v>
+        <v>1.036162691405891</v>
       </c>
       <c r="M11">
-        <v>0.9810623105825155</v>
+        <v>1.044079758257158</v>
       </c>
       <c r="N11">
-        <v>0.9906340569826221</v>
+        <v>1.041329402069173</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9555977438338306</v>
+        <v>1.032893071698054</v>
       </c>
       <c r="D12">
-        <v>0.9690824433557391</v>
+        <v>1.034084359731856</v>
       </c>
       <c r="E12">
-        <v>0.9687409060729641</v>
+        <v>1.032256306073205</v>
       </c>
       <c r="F12">
-        <v>0.9629785934292243</v>
+        <v>1.040122167404653</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031480558044282</v>
+        <v>1.036237737140589</v>
       </c>
       <c r="J12">
-        <v>0.9874078655806274</v>
+        <v>1.039561885363288</v>
       </c>
       <c r="K12">
-        <v>0.98482695362155</v>
+        <v>1.037703649360021</v>
       </c>
       <c r="L12">
-        <v>0.9844925264182072</v>
+        <v>1.035882505452889</v>
       </c>
       <c r="M12">
-        <v>0.9788511795390594</v>
+        <v>1.043718826143631</v>
       </c>
       <c r="N12">
-        <v>0.9888100980070174</v>
+        <v>1.041038182479919</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9561151667959874</v>
+        <v>1.032974349597185</v>
       </c>
       <c r="D13">
-        <v>0.9695255120093182</v>
+        <v>1.034156652527461</v>
       </c>
       <c r="E13">
-        <v>0.9691687387535017</v>
+        <v>1.032326371232429</v>
       </c>
       <c r="F13">
-        <v>0.9635129995521943</v>
+        <v>1.04020953130135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031667934379694</v>
+        <v>1.036260004778682</v>
       </c>
       <c r="J13">
-        <v>0.9878004530020983</v>
+        <v>1.039624286281557</v>
       </c>
       <c r="K13">
-        <v>0.9852147209681137</v>
+        <v>1.037766009759642</v>
       </c>
       <c r="L13">
-        <v>0.9848653409902778</v>
+        <v>1.035942625893204</v>
       </c>
       <c r="M13">
-        <v>0.9793277712892792</v>
+        <v>1.043796269538838</v>
       </c>
       <c r="N13">
-        <v>0.9892032429476567</v>
+        <v>1.04110067201465</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9578010547664556</v>
+        <v>1.033240587651923</v>
       </c>
       <c r="D14">
-        <v>0.9709694818952715</v>
+        <v>1.034393463391992</v>
       </c>
       <c r="E14">
-        <v>0.9705631133979871</v>
+        <v>1.032555886314599</v>
       </c>
       <c r="F14">
-        <v>0.9652543647815313</v>
+        <v>1.040495714295891</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032277959179865</v>
+        <v>1.036332878193401</v>
       </c>
       <c r="J14">
-        <v>0.9890795315088189</v>
+        <v>1.039828663674782</v>
       </c>
       <c r="K14">
-        <v>0.9864781729249775</v>
+        <v>1.037970260329906</v>
       </c>
       <c r="L14">
-        <v>0.9860800995747068</v>
+        <v>1.036139539972724</v>
       </c>
       <c r="M14">
-        <v>0.9808805651983491</v>
+        <v>1.044049933502178</v>
       </c>
       <c r="N14">
-        <v>0.9904841378925694</v>
+        <v>1.041305339647216</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9588326325367321</v>
+        <v>1.033404568491802</v>
       </c>
       <c r="D15">
-        <v>0.9718532926675368</v>
+        <v>1.034539323209162</v>
       </c>
       <c r="E15">
-        <v>0.9714166129390914</v>
+        <v>1.032697253426853</v>
       </c>
       <c r="F15">
-        <v>0.9663199967541468</v>
+        <v>1.040671986733054</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03265084874514</v>
+        <v>1.036377710502054</v>
       </c>
       <c r="J15">
-        <v>0.9898621339255897</v>
+        <v>1.03995452331002</v>
       </c>
       <c r="K15">
-        <v>0.987251273190684</v>
+        <v>1.038096046368669</v>
       </c>
       <c r="L15">
-        <v>0.9868234247751047</v>
+        <v>1.036260807972289</v>
       </c>
       <c r="M15">
-        <v>0.981830660076546</v>
+        <v>1.044206159329468</v>
       </c>
       <c r="N15">
-        <v>0.9912678516945379</v>
+        <v>1.041431378017571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9647318894398416</v>
+        <v>1.034358142669236</v>
       </c>
       <c r="D16">
-        <v>0.9769112778453495</v>
+        <v>1.035387576911821</v>
       </c>
       <c r="E16">
-        <v>0.976301776114526</v>
+        <v>1.033519395005988</v>
       </c>
       <c r="F16">
-        <v>0.9724156180583576</v>
+        <v>1.041697147695425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034777483269548</v>
+        <v>1.036637627402078</v>
       </c>
       <c r="J16">
-        <v>0.9943366756950778</v>
+        <v>1.040686109610066</v>
       </c>
       <c r="K16">
-        <v>0.9916723605577642</v>
+        <v>1.038827273566761</v>
       </c>
       <c r="L16">
-        <v>0.9910745300714976</v>
+        <v>1.036965771782596</v>
       </c>
       <c r="M16">
-        <v>0.98726323828086</v>
+        <v>1.045114478247366</v>
       </c>
       <c r="N16">
-        <v>0.9957487478265755</v>
+        <v>1.042164003254078</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.96834424093164</v>
+        <v>1.034955541610273</v>
       </c>
       <c r="D17">
-        <v>0.9800116081444918</v>
+        <v>1.035919042995159</v>
       </c>
       <c r="E17">
-        <v>0.9792967149896007</v>
+        <v>1.034034514211406</v>
       </c>
       <c r="F17">
-        <v>0.9761496160250661</v>
+        <v>1.042339490956214</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036074533472535</v>
+        <v>1.036799765244197</v>
       </c>
       <c r="J17">
-        <v>0.9970757100716866</v>
+        <v>1.041144165889167</v>
       </c>
       <c r="K17">
-        <v>0.9943794244554675</v>
+        <v>1.039285165473765</v>
       </c>
       <c r="L17">
-        <v>0.993677753935192</v>
+        <v>1.037407218625433</v>
       </c>
       <c r="M17">
-        <v>0.990589164138288</v>
+        <v>1.045683385884701</v>
       </c>
       <c r="N17">
-        <v>0.9984916719461707</v>
+        <v>1.042622710025634</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9704211403622079</v>
+        <v>1.035303726520786</v>
       </c>
       <c r="D18">
-        <v>0.9817951848402894</v>
+        <v>1.036228817238996</v>
       </c>
       <c r="E18">
-        <v>0.9810198466657937</v>
+        <v>1.034334765201651</v>
       </c>
       <c r="F18">
-        <v>0.9782969556091468</v>
+        <v>1.042713905768171</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036818367028751</v>
+        <v>1.036894013895541</v>
       </c>
       <c r="J18">
-        <v>0.9986501323386789</v>
+        <v>1.041411039296425</v>
       </c>
       <c r="K18">
-        <v>0.995935734626304</v>
+        <v>1.039551964900247</v>
       </c>
       <c r="L18">
-        <v>0.9951744474619483</v>
+        <v>1.037664436358197</v>
       </c>
       <c r="M18">
-        <v>0.9925011315182567</v>
+        <v>1.046014914793531</v>
       </c>
       <c r="N18">
-        <v>1.000068330073371</v>
+        <v>1.042889962423742</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9711243449780377</v>
+        <v>1.035422403490399</v>
       </c>
       <c r="D19">
-        <v>0.9823992494243987</v>
+        <v>1.036334405047426</v>
       </c>
       <c r="E19">
-        <v>0.9816034702019897</v>
+        <v>1.034437107782444</v>
       </c>
       <c r="F19">
-        <v>0.9790240945245491</v>
+        <v>1.042841528966636</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037069891822555</v>
+        <v>1.036926095468538</v>
       </c>
       <c r="J19">
-        <v>0.999183139891877</v>
+        <v>1.041501985079137</v>
       </c>
       <c r="K19">
-        <v>0.9964626549376423</v>
+        <v>1.039642889166788</v>
       </c>
       <c r="L19">
-        <v>0.9956811967636469</v>
+        <v>1.03775209527403</v>
       </c>
       <c r="M19">
-        <v>0.9931484483569859</v>
+        <v>1.046127906128574</v>
       </c>
       <c r="N19">
-        <v>1.000602094558432</v>
+        <v>1.042981037359897</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9679598207026687</v>
+        <v>1.034891474136126</v>
       </c>
       <c r="D20">
-        <v>0.9796815646434544</v>
+        <v>1.035862044631104</v>
       </c>
       <c r="E20">
-        <v>0.9789778713964848</v>
+        <v>1.033979268509428</v>
       </c>
       <c r="F20">
-        <v>0.9757521982470122</v>
+        <v>1.042270599874106</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035936700168629</v>
+        <v>1.036782402886625</v>
       </c>
       <c r="J20">
-        <v>0.9967842641760128</v>
+        <v>1.041095052194421</v>
       </c>
       <c r="K20">
-        <v>0.9940913527059971</v>
+        <v>1.039236067148873</v>
       </c>
       <c r="L20">
-        <v>0.9934007236957167</v>
+        <v>1.037359883618521</v>
       </c>
       <c r="M20">
-        <v>0.9902352508312439</v>
+        <v>1.04562237913564</v>
       </c>
       <c r="N20">
-        <v>0.9981998121638959</v>
+        <v>1.042573526583809</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.957306103562601</v>
+        <v>1.033162199119451</v>
       </c>
       <c r="D21">
-        <v>0.9705454993692741</v>
+        <v>1.034323738338107</v>
       </c>
       <c r="E21">
-        <v>0.9701536837968058</v>
+        <v>1.032488309172012</v>
       </c>
       <c r="F21">
-        <v>0.9647431036382005</v>
+        <v>1.040411451881257</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032098944003984</v>
+        <v>1.036311432838148</v>
       </c>
       <c r="J21">
-        <v>0.9887040241618525</v>
+        <v>1.039768492979023</v>
       </c>
       <c r="K21">
-        <v>0.9861072408095968</v>
+        <v>1.037910126033597</v>
       </c>
       <c r="L21">
-        <v>0.985723458912156</v>
+        <v>1.036081565628034</v>
       </c>
       <c r="M21">
-        <v>0.9804246974887735</v>
+        <v>1.043975249329894</v>
       </c>
       <c r="N21">
-        <v>0.9901080972820991</v>
+        <v>1.041245083502166</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9502995350090673</v>
+        <v>1.032072446242206</v>
       </c>
       <c r="D22">
-        <v>0.9645484885678048</v>
+        <v>1.03335449175172</v>
       </c>
       <c r="E22">
-        <v>0.9643633542172557</v>
+        <v>1.031548938891877</v>
       </c>
       <c r="F22">
-        <v>0.9575076364879671</v>
+        <v>1.039240168384233</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029557988043507</v>
+        <v>1.036012375033143</v>
       </c>
       <c r="J22">
-        <v>0.9833874673183712</v>
+        <v>1.038931644029533</v>
       </c>
       <c r="K22">
-        <v>0.9808565515819259</v>
+        <v>1.037073863963124</v>
       </c>
       <c r="L22">
-        <v>0.9806754528013722</v>
+        <v>1.035275342528638</v>
       </c>
       <c r="M22">
-        <v>0.9739706394545006</v>
+        <v>1.042936808032848</v>
       </c>
       <c r="N22">
-        <v>0.9847839903180823</v>
+        <v>1.04040704613118</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9540450149409651</v>
+        <v>1.03265038452436</v>
       </c>
       <c r="D23">
-        <v>0.9677531442237889</v>
+        <v>1.033868505267696</v>
       </c>
       <c r="E23">
-        <v>0.9674573693038585</v>
+        <v>1.032047104093306</v>
       </c>
       <c r="F23">
-        <v>0.9613750215332286</v>
+        <v>1.039861315981532</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030917845690504</v>
+        <v>1.03617119114768</v>
       </c>
       <c r="J23">
-        <v>0.9862297022444768</v>
+        <v>1.039375540645457</v>
       </c>
       <c r="K23">
-        <v>0.9836633221220502</v>
+        <v>1.037517430621764</v>
       </c>
       <c r="L23">
-        <v>0.9833737892981018</v>
+        <v>1.035702975702385</v>
       </c>
       <c r="M23">
-        <v>0.977420934028009</v>
+        <v>1.043487576886709</v>
       </c>
       <c r="N23">
-        <v>0.987630261543792</v>
+        <v>1.040851573131215</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9681336163658175</v>
+        <v>1.034920424297489</v>
       </c>
       <c r="D24">
-        <v>0.9798307734071614</v>
+        <v>1.035887800421178</v>
       </c>
       <c r="E24">
-        <v>0.9791220162408885</v>
+        <v>1.034004232311101</v>
       </c>
       <c r="F24">
-        <v>0.9759318685235895</v>
+        <v>1.042301729571031</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035999020254638</v>
+        <v>1.036790249188658</v>
       </c>
       <c r="J24">
-        <v>0.9969160274746318</v>
+        <v>1.041117245495596</v>
       </c>
       <c r="K24">
-        <v>0.9942215897238569</v>
+        <v>1.039258253437423</v>
       </c>
       <c r="L24">
-        <v>0.9935259686024437</v>
+        <v>1.037381273107336</v>
       </c>
       <c r="M24">
-        <v>0.9903952551639692</v>
+        <v>1.045649946402963</v>
       </c>
       <c r="N24">
-        <v>0.9983317625815122</v>
+        <v>1.042595751402017</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9833132626685274</v>
+        <v>1.037544212837484</v>
       </c>
       <c r="D25">
-        <v>0.9928835305472188</v>
+        <v>1.038222444414285</v>
       </c>
       <c r="E25">
-        <v>0.9917354207400481</v>
+        <v>1.036267188797742</v>
       </c>
       <c r="F25">
-        <v>0.9916349864942983</v>
+        <v>1.045123804846854</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041401249051152</v>
+        <v>1.037495949408217</v>
       </c>
       <c r="J25">
-        <v>1.008415554123355</v>
+        <v>1.043126537269007</v>
       </c>
       <c r="K25">
-        <v>1.005593334308377</v>
+        <v>1.041267380054337</v>
       </c>
       <c r="L25">
-        <v>1.004463402954616</v>
+        <v>1.039318250563242</v>
       </c>
       <c r="M25">
-        <v>1.004364561486345</v>
+        <v>1.048147317504886</v>
       </c>
       <c r="N25">
-        <v>1.009847619877092</v>
+        <v>1.044607896600215</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039628898182855</v>
+        <v>0.9946335120890986</v>
       </c>
       <c r="D2">
-        <v>1.040077909014349</v>
+        <v>1.002643436960774</v>
       </c>
       <c r="E2">
-        <v>1.03806582671003</v>
+        <v>1.001171474114499</v>
       </c>
       <c r="F2">
-        <v>1.047367141158597</v>
+        <v>1.003360171451011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038048715023419</v>
+        <v>1.045368876478539</v>
       </c>
       <c r="J2">
-        <v>1.044719881389427</v>
+        <v>1.016975927285302</v>
       </c>
       <c r="K2">
-        <v>1.042861279582439</v>
+        <v>1.014066066948362</v>
       </c>
       <c r="L2">
-        <v>1.04085492065352</v>
+        <v>1.01261451253352</v>
       </c>
       <c r="M2">
-        <v>1.050129977221782</v>
+        <v>1.014772891406778</v>
       </c>
       <c r="N2">
-        <v>1.046203503452045</v>
+        <v>1.018420149750817</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041138098692954</v>
+        <v>1.002459698408849</v>
       </c>
       <c r="D3">
-        <v>1.041421449347817</v>
+        <v>1.009403359336113</v>
       </c>
       <c r="E3">
-        <v>1.039368302121845</v>
+        <v>1.007709419340872</v>
       </c>
       <c r="F3">
-        <v>1.048991841193356</v>
+        <v>1.011474465504689</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038444277576797</v>
+        <v>1.048075122351622</v>
       </c>
       <c r="J3">
-        <v>1.045871568733474</v>
+        <v>1.022883533420665</v>
       </c>
       <c r="K3">
-        <v>1.044013766300542</v>
+        <v>1.019917319810516</v>
       </c>
       <c r="L3">
-        <v>1.041966031120062</v>
+        <v>1.018244597972361</v>
       </c>
       <c r="M3">
-        <v>1.051564400405228</v>
+        <v>1.021962603772113</v>
       </c>
       <c r="N3">
-        <v>1.047356826324221</v>
+        <v>1.024336145364503</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042112650351586</v>
+        <v>1.007359453745806</v>
       </c>
       <c r="D4">
-        <v>1.042289153832775</v>
+        <v>1.013640639141139</v>
       </c>
       <c r="E4">
-        <v>1.040209523305763</v>
+        <v>1.011808534805038</v>
       </c>
       <c r="F4">
-        <v>1.050041275052036</v>
+        <v>1.016558296452752</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0386975721454</v>
+        <v>1.049751983991342</v>
       </c>
       <c r="J4">
-        <v>1.046614419928621</v>
+        <v>1.026576759217084</v>
       </c>
       <c r="K4">
-        <v>1.044757317260793</v>
+        <v>1.023577174753616</v>
       </c>
       <c r="L4">
-        <v>1.04268288895571</v>
+        <v>1.021766500082103</v>
       </c>
       <c r="M4">
-        <v>1.052490241827758</v>
+        <v>1.026460902038541</v>
       </c>
       <c r="N4">
-        <v>1.048100732453272</v>
+        <v>1.028034615965173</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042521881601634</v>
+        <v>1.009382329889183</v>
       </c>
       <c r="D5">
-        <v>1.042653547613996</v>
+        <v>1.015391138685168</v>
       </c>
       <c r="E5">
-        <v>1.040562804346008</v>
+        <v>1.01350217685649</v>
       </c>
       <c r="F5">
-        <v>1.05048202253525</v>
+        <v>1.018658046729374</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038803422983074</v>
+        <v>1.050440029044625</v>
       </c>
       <c r="J5">
-        <v>1.046926154563227</v>
+        <v>1.028100164011797</v>
       </c>
       <c r="K5">
-        <v>1.045069389663082</v>
+        <v>1.025087254685449</v>
       </c>
       <c r="L5">
-        <v>1.042983758457948</v>
+        <v>1.023219744723961</v>
       </c>
       <c r="M5">
-        <v>1.052878917450248</v>
+        <v>1.028317293610638</v>
       </c>
       <c r="N5">
-        <v>1.048412909786815</v>
+        <v>1.029560184169431</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042590566013208</v>
+        <v>1.009719875583271</v>
       </c>
       <c r="D6">
-        <v>1.042714708321079</v>
+        <v>1.015683298296961</v>
       </c>
       <c r="E6">
-        <v>1.04062210038727</v>
+        <v>1.013784859529046</v>
       </c>
       <c r="F6">
-        <v>1.050556000779053</v>
+        <v>1.019008471347104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03882115869598</v>
+        <v>1.05055458720544</v>
       </c>
       <c r="J6">
-        <v>1.046978463537032</v>
+        <v>1.028354284380067</v>
       </c>
       <c r="K6">
-        <v>1.045121757902395</v>
+        <v>1.025339178059682</v>
       </c>
       <c r="L6">
-        <v>1.043034246780628</v>
+        <v>1.023462191192826</v>
       </c>
       <c r="M6">
-        <v>1.052944145910667</v>
+        <v>1.028627014566429</v>
       </c>
       <c r="N6">
-        <v>1.048465293045363</v>
+        <v>1.029814665417772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0421181203563</v>
+        <v>1.007386625872631</v>
       </c>
       <c r="D7">
-        <v>1.042294024400607</v>
+        <v>1.013664148238455</v>
       </c>
       <c r="E7">
-        <v>1.040214245303137</v>
+        <v>1.011831279452637</v>
       </c>
       <c r="F7">
-        <v>1.050047166036801</v>
+        <v>1.016586497720313</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038698989018004</v>
+        <v>1.049761243025815</v>
       </c>
       <c r="J7">
-        <v>1.046618587534176</v>
+        <v>1.02659722767539</v>
       </c>
       <c r="K7">
-        <v>1.044761489208479</v>
+        <v>1.023597462442567</v>
       </c>
       <c r="L7">
-        <v>1.042686911135819</v>
+        <v>1.021786023870161</v>
       </c>
       <c r="M7">
-        <v>1.052495437473317</v>
+        <v>1.026485840848059</v>
       </c>
       <c r="N7">
-        <v>1.048104905977304</v>
+        <v>1.028055113491037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.040139359529953</v>
+        <v>0.997313919220344</v>
       </c>
       <c r="D8">
-        <v>1.040532312017948</v>
+        <v>1.004957523483143</v>
       </c>
       <c r="E8">
-        <v>1.03850633311389</v>
+        <v>1.003409357485885</v>
       </c>
       <c r="F8">
-        <v>1.047916606266406</v>
+        <v>1.006138464807907</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038182949890783</v>
+        <v>1.046299391288741</v>
       </c>
       <c r="J8">
-        <v>1.04510959383018</v>
+        <v>1.019000326931607</v>
       </c>
       <c r="K8">
-        <v>1.043251224318155</v>
+        <v>1.016070758118329</v>
       </c>
       <c r="L8">
-        <v>1.04123086534082</v>
+        <v>1.014543344063622</v>
       </c>
       <c r="M8">
-        <v>1.050615234248282</v>
+        <v>1.01723592377517</v>
       </c>
       <c r="N8">
-        <v>1.046593769329164</v>
+        <v>1.020447424276821</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03663679157086</v>
+        <v>0.9781872245676578</v>
       </c>
       <c r="D9">
-        <v>1.037414940365798</v>
+        <v>0.9884712224280348</v>
       </c>
       <c r="E9">
-        <v>1.035484456848852</v>
+        <v>0.9874708281176678</v>
       </c>
       <c r="F9">
-        <v>1.044147636363842</v>
+        <v>0.9863298084236812</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037253116717917</v>
+        <v>1.039586530825025</v>
       </c>
       <c r="J9">
-        <v>1.042432116002652</v>
+        <v>1.00453448058496</v>
       </c>
       <c r="K9">
-        <v>1.040572909324265</v>
+        <v>1.001754157018681</v>
       </c>
       <c r="L9">
-        <v>1.038648717312256</v>
+        <v>1.000770506763674</v>
       </c>
       <c r="M9">
-        <v>1.04728386258752</v>
+        <v>0.999648638300093</v>
       </c>
       <c r="N9">
-        <v>1.043912489176011</v>
+        <v>1.005961034769106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034290594350215</v>
+        <v>0.9643194685635604</v>
       </c>
       <c r="D10">
-        <v>1.03532748602872</v>
+        <v>0.9765574642303263</v>
       </c>
       <c r="E10">
-        <v>1.033461153057041</v>
+        <v>0.9759600159671676</v>
       </c>
       <c r="F10">
-        <v>1.041624522195846</v>
+        <v>0.9719893778291586</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036619260395995</v>
+        <v>1.034629141876483</v>
       </c>
       <c r="J10">
-        <v>1.040634303640133</v>
+        <v>0.9940239135867627</v>
       </c>
       <c r="K10">
-        <v>1.038775489138307</v>
+        <v>0.9913632857722154</v>
       </c>
       <c r="L10">
-        <v>1.036915847224548</v>
+        <v>0.9907773226307044</v>
       </c>
       <c r="M10">
-        <v>1.045050144650138</v>
+        <v>0.9868834849220206</v>
       </c>
       <c r="N10">
-        <v>1.042112123713725</v>
+        <v>0.9954355415601922</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033271892256465</v>
+        <v>0.9579983842983436</v>
       </c>
       <c r="D11">
-        <v>1.034421308401347</v>
+        <v>0.9711385299686968</v>
       </c>
       <c r="E11">
-        <v>1.032582873595427</v>
+        <v>0.9707263611755872</v>
       </c>
       <c r="F11">
-        <v>1.040529364994142</v>
+        <v>0.9654582021183566</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036341439915583</v>
+        <v>1.032349311334539</v>
       </c>
       <c r="J11">
-        <v>1.0398526919738</v>
+        <v>0.9892292379984851</v>
       </c>
       <c r="K11">
-        <v>1.037994274312641</v>
+        <v>0.9866260582446387</v>
       </c>
       <c r="L11">
-        <v>1.036162691405891</v>
+        <v>0.986222288079755</v>
       </c>
       <c r="M11">
-        <v>1.044079758257158</v>
+        <v>0.9810623105825157</v>
       </c>
       <c r="N11">
-        <v>1.041329402069173</v>
+        <v>0.9906340569826223</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032893071698054</v>
+        <v>0.9555977438338317</v>
       </c>
       <c r="D12">
-        <v>1.034084359731856</v>
+        <v>0.9690824433557405</v>
       </c>
       <c r="E12">
-        <v>1.032256306073205</v>
+        <v>0.9687409060729653</v>
       </c>
       <c r="F12">
-        <v>1.040122167404653</v>
+        <v>0.9629785934292253</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036237737140589</v>
+        <v>1.031480558044283</v>
       </c>
       <c r="J12">
-        <v>1.039561885363288</v>
+        <v>0.9874078655806285</v>
       </c>
       <c r="K12">
-        <v>1.037703649360021</v>
+        <v>0.9848269536215514</v>
       </c>
       <c r="L12">
-        <v>1.035882505452889</v>
+        <v>0.9844925264182083</v>
       </c>
       <c r="M12">
-        <v>1.043718826143631</v>
+        <v>0.9788511795390604</v>
       </c>
       <c r="N12">
-        <v>1.041038182479919</v>
+        <v>0.9888100980070182</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032974349597185</v>
+        <v>0.956115166795987</v>
       </c>
       <c r="D13">
-        <v>1.034156652527461</v>
+        <v>0.9695255120093179</v>
       </c>
       <c r="E13">
-        <v>1.032326371232429</v>
+        <v>0.9691687387535015</v>
       </c>
       <c r="F13">
-        <v>1.04020953130135</v>
+        <v>0.9635129995521936</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036260004778682</v>
+        <v>1.031667934379693</v>
       </c>
       <c r="J13">
-        <v>1.039624286281557</v>
+        <v>0.987800453002098</v>
       </c>
       <c r="K13">
-        <v>1.037766009759642</v>
+        <v>0.9852147209681132</v>
       </c>
       <c r="L13">
-        <v>1.035942625893204</v>
+        <v>0.9848653409902777</v>
       </c>
       <c r="M13">
-        <v>1.043796269538838</v>
+        <v>0.9793277712892787</v>
       </c>
       <c r="N13">
-        <v>1.04110067201465</v>
+        <v>0.9892032429476566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033240587651923</v>
+        <v>0.9578010547664573</v>
       </c>
       <c r="D14">
-        <v>1.034393463391992</v>
+        <v>0.9709694818952728</v>
       </c>
       <c r="E14">
-        <v>1.032555886314599</v>
+        <v>0.9705631133979887</v>
       </c>
       <c r="F14">
-        <v>1.040495714295891</v>
+        <v>0.965254364781532</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036332878193401</v>
+        <v>1.032277959179866</v>
       </c>
       <c r="J14">
-        <v>1.039828663674782</v>
+        <v>0.9890795315088206</v>
       </c>
       <c r="K14">
-        <v>1.037970260329906</v>
+        <v>0.986478172924979</v>
       </c>
       <c r="L14">
-        <v>1.036139539972724</v>
+        <v>0.9860800995747084</v>
       </c>
       <c r="M14">
-        <v>1.044049933502178</v>
+        <v>0.9808805651983503</v>
       </c>
       <c r="N14">
-        <v>1.041305339647216</v>
+        <v>0.9904841378925709</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033404568491802</v>
+        <v>0.9588326325367303</v>
       </c>
       <c r="D15">
-        <v>1.034539323209162</v>
+        <v>0.9718532926675353</v>
       </c>
       <c r="E15">
-        <v>1.032697253426853</v>
+        <v>0.9714166129390902</v>
       </c>
       <c r="F15">
-        <v>1.040671986733054</v>
+        <v>0.9663199967541455</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036377710502054</v>
+        <v>1.032650848745139</v>
       </c>
       <c r="J15">
-        <v>1.03995452331002</v>
+        <v>0.9898621339255881</v>
       </c>
       <c r="K15">
-        <v>1.038096046368669</v>
+        <v>0.9872512731906825</v>
       </c>
       <c r="L15">
-        <v>1.036260807972289</v>
+        <v>0.9868234247751034</v>
       </c>
       <c r="M15">
-        <v>1.044206159329468</v>
+        <v>0.9818306600765446</v>
       </c>
       <c r="N15">
-        <v>1.041431378017571</v>
+        <v>0.9912678516945364</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034358142669236</v>
+        <v>0.9647318894398412</v>
       </c>
       <c r="D16">
-        <v>1.035387576911821</v>
+        <v>0.9769112778453493</v>
       </c>
       <c r="E16">
-        <v>1.033519395005988</v>
+        <v>0.9763017761145257</v>
       </c>
       <c r="F16">
-        <v>1.041697147695425</v>
+        <v>0.9724156180583573</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036637627402078</v>
+        <v>1.034777483269548</v>
       </c>
       <c r="J16">
-        <v>1.040686109610066</v>
+        <v>0.9943366756950777</v>
       </c>
       <c r="K16">
-        <v>1.038827273566761</v>
+        <v>0.9916723605577641</v>
       </c>
       <c r="L16">
-        <v>1.036965771782596</v>
+        <v>0.9910745300714973</v>
       </c>
       <c r="M16">
-        <v>1.045114478247366</v>
+        <v>0.9872632382808598</v>
       </c>
       <c r="N16">
-        <v>1.042164003254078</v>
+        <v>0.9957487478265752</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034955541610273</v>
+        <v>0.9683442409316393</v>
       </c>
       <c r="D17">
-        <v>1.035919042995159</v>
+        <v>0.9800116081444906</v>
       </c>
       <c r="E17">
-        <v>1.034034514211406</v>
+        <v>0.9792967149896</v>
       </c>
       <c r="F17">
-        <v>1.042339490956214</v>
+        <v>0.9761496160250656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036799765244197</v>
+        <v>1.036074533472535</v>
       </c>
       <c r="J17">
-        <v>1.041144165889167</v>
+        <v>0.9970757100716858</v>
       </c>
       <c r="K17">
-        <v>1.039285165473765</v>
+        <v>0.9943794244554665</v>
       </c>
       <c r="L17">
-        <v>1.037407218625433</v>
+        <v>0.9936777539351911</v>
       </c>
       <c r="M17">
-        <v>1.045683385884701</v>
+        <v>0.9905891641382875</v>
       </c>
       <c r="N17">
-        <v>1.042622710025634</v>
+        <v>0.9984916719461701</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035303726520786</v>
+        <v>0.9704211403622074</v>
       </c>
       <c r="D18">
-        <v>1.036228817238996</v>
+        <v>0.9817951848402888</v>
       </c>
       <c r="E18">
-        <v>1.034334765201651</v>
+        <v>0.9810198466657931</v>
       </c>
       <c r="F18">
-        <v>1.042713905768171</v>
+        <v>0.9782969556091461</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036894013895541</v>
+        <v>1.036818367028751</v>
       </c>
       <c r="J18">
-        <v>1.041411039296425</v>
+        <v>0.9986501323386783</v>
       </c>
       <c r="K18">
-        <v>1.039551964900247</v>
+        <v>0.9959357346263037</v>
       </c>
       <c r="L18">
-        <v>1.037664436358197</v>
+        <v>0.9951744474619477</v>
       </c>
       <c r="M18">
-        <v>1.046014914793531</v>
+        <v>0.9925011315182561</v>
       </c>
       <c r="N18">
-        <v>1.042889962423742</v>
+        <v>1.00006833007337</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035422403490399</v>
+        <v>0.9711243449780386</v>
       </c>
       <c r="D19">
-        <v>1.036334405047426</v>
+        <v>0.9823992494243995</v>
       </c>
       <c r="E19">
-        <v>1.034437107782444</v>
+        <v>0.9816034702019905</v>
       </c>
       <c r="F19">
-        <v>1.042841528966636</v>
+        <v>0.9790240945245502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036926095468538</v>
+        <v>1.037069891822555</v>
       </c>
       <c r="J19">
-        <v>1.041501985079137</v>
+        <v>0.9991831398918777</v>
       </c>
       <c r="K19">
-        <v>1.039642889166788</v>
+        <v>0.9964626549376432</v>
       </c>
       <c r="L19">
-        <v>1.03775209527403</v>
+        <v>0.9956811967636475</v>
       </c>
       <c r="M19">
-        <v>1.046127906128574</v>
+        <v>0.993148448356987</v>
       </c>
       <c r="N19">
-        <v>1.042981037359897</v>
+        <v>1.000602094558432</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034891474136126</v>
+        <v>0.9679598207026682</v>
       </c>
       <c r="D20">
-        <v>1.035862044631104</v>
+        <v>0.979681564643454</v>
       </c>
       <c r="E20">
-        <v>1.033979268509428</v>
+        <v>0.9789778713964843</v>
       </c>
       <c r="F20">
-        <v>1.042270599874106</v>
+        <v>0.9757521982470115</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036782402886625</v>
+        <v>1.035936700168629</v>
       </c>
       <c r="J20">
-        <v>1.041095052194421</v>
+        <v>0.9967842641760123</v>
       </c>
       <c r="K20">
-        <v>1.039236067148873</v>
+        <v>0.9940913527059969</v>
       </c>
       <c r="L20">
-        <v>1.037359883618521</v>
+        <v>0.9934007236957162</v>
       </c>
       <c r="M20">
-        <v>1.04562237913564</v>
+        <v>0.9902352508312435</v>
       </c>
       <c r="N20">
-        <v>1.042573526583809</v>
+        <v>0.9981998121638955</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033162199119451</v>
+        <v>0.9573061035626012</v>
       </c>
       <c r="D21">
-        <v>1.034323738338107</v>
+        <v>0.9705454993692743</v>
       </c>
       <c r="E21">
-        <v>1.032488309172012</v>
+        <v>0.9701536837968058</v>
       </c>
       <c r="F21">
-        <v>1.040411451881257</v>
+        <v>0.9647431036382005</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036311432838148</v>
+        <v>1.032098944003984</v>
       </c>
       <c r="J21">
-        <v>1.039768492979023</v>
+        <v>0.9887040241618525</v>
       </c>
       <c r="K21">
-        <v>1.037910126033597</v>
+        <v>0.9861072408095968</v>
       </c>
       <c r="L21">
-        <v>1.036081565628034</v>
+        <v>0.9857234589121561</v>
       </c>
       <c r="M21">
-        <v>1.043975249329894</v>
+        <v>0.9804246974887735</v>
       </c>
       <c r="N21">
-        <v>1.041245083502166</v>
+        <v>0.9901080972820989</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032072446242206</v>
+        <v>0.9502995350090662</v>
       </c>
       <c r="D22">
-        <v>1.03335449175172</v>
+        <v>0.9645484885678037</v>
       </c>
       <c r="E22">
-        <v>1.031548938891877</v>
+        <v>0.9643633542172547</v>
       </c>
       <c r="F22">
-        <v>1.039240168384233</v>
+        <v>0.9575076364879667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036012375033143</v>
+        <v>1.029557988043506</v>
       </c>
       <c r="J22">
-        <v>1.038931644029533</v>
+        <v>0.9833874673183699</v>
       </c>
       <c r="K22">
-        <v>1.037073863963124</v>
+        <v>0.9808565515819245</v>
       </c>
       <c r="L22">
-        <v>1.035275342528638</v>
+        <v>0.9806754528013713</v>
       </c>
       <c r="M22">
-        <v>1.042936808032848</v>
+        <v>0.9739706394544999</v>
       </c>
       <c r="N22">
-        <v>1.04040704613118</v>
+        <v>0.9847839903180811</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03265038452436</v>
+        <v>0.9540450149409651</v>
       </c>
       <c r="D23">
-        <v>1.033868505267696</v>
+        <v>0.9677531442237889</v>
       </c>
       <c r="E23">
-        <v>1.032047104093306</v>
+        <v>0.9674573693038585</v>
       </c>
       <c r="F23">
-        <v>1.039861315981532</v>
+        <v>0.9613750215332286</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03617119114768</v>
+        <v>1.030917845690504</v>
       </c>
       <c r="J23">
-        <v>1.039375540645457</v>
+        <v>0.9862297022444771</v>
       </c>
       <c r="K23">
-        <v>1.037517430621764</v>
+        <v>0.9836633221220505</v>
       </c>
       <c r="L23">
-        <v>1.035702975702385</v>
+        <v>0.9833737892981019</v>
       </c>
       <c r="M23">
-        <v>1.043487576886709</v>
+        <v>0.9774209340280089</v>
       </c>
       <c r="N23">
-        <v>1.040851573131215</v>
+        <v>0.9876302615437923</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034920424297489</v>
+        <v>0.968133616365816</v>
       </c>
       <c r="D24">
-        <v>1.035887800421178</v>
+        <v>0.9798307734071603</v>
       </c>
       <c r="E24">
-        <v>1.034004232311101</v>
+        <v>0.979122016240887</v>
       </c>
       <c r="F24">
-        <v>1.042301729571031</v>
+        <v>0.9759318685235879</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036790249188658</v>
+        <v>1.035999020254637</v>
       </c>
       <c r="J24">
-        <v>1.041117245495596</v>
+        <v>0.9969160274746305</v>
       </c>
       <c r="K24">
-        <v>1.039258253437423</v>
+        <v>0.9942215897238557</v>
       </c>
       <c r="L24">
-        <v>1.037381273107336</v>
+        <v>0.9935259686024425</v>
       </c>
       <c r="M24">
-        <v>1.045649946402963</v>
+        <v>0.9903952551639678</v>
       </c>
       <c r="N24">
-        <v>1.042595751402017</v>
+        <v>0.9983317625815114</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037544212837484</v>
+        <v>0.9833132626685289</v>
       </c>
       <c r="D25">
-        <v>1.038222444414285</v>
+        <v>0.9928835305472204</v>
       </c>
       <c r="E25">
-        <v>1.036267188797742</v>
+        <v>0.9917354207400494</v>
       </c>
       <c r="F25">
-        <v>1.045123804846854</v>
+        <v>0.9916349864942997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037495949408217</v>
+        <v>1.041401249051153</v>
       </c>
       <c r="J25">
-        <v>1.043126537269007</v>
+        <v>1.008415554123357</v>
       </c>
       <c r="K25">
-        <v>1.041267380054337</v>
+        <v>1.005593334308378</v>
       </c>
       <c r="L25">
-        <v>1.039318250563242</v>
+        <v>1.004463402954617</v>
       </c>
       <c r="M25">
-        <v>1.048147317504886</v>
+        <v>1.004364561486346</v>
       </c>
       <c r="N25">
-        <v>1.044607896600215</v>
+        <v>1.009847619877093</v>
       </c>
     </row>
   </sheetData>
